--- a/_architettura/Architettura dell'informazione Modello Case di riposo.xlsx
+++ b/_architettura/Architettura dell'informazione Modello Case di riposo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco.rubin\Documents\Repos\design-cdr-wordpress-theme\_Architettura dell'informazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco.rubin\Documents\Repos\design-cdr-wordpress-theme\_architettura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA392FE-EC59-4E57-B4C5-7D26761F84C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4C68BA-2D38-49D9-AA98-A4F74E6ED7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="25" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduzione" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="855">
   <si>
     <r>
       <rPr>
@@ -3899,22 +3899,7 @@
     <t>Sanitario</t>
   </si>
   <si>
-    <t>Nucleo</t>
-  </si>
-  <si>
     <t>Palestra</t>
-  </si>
-  <si>
-    <t>Locali per servizio ricreativo</t>
-  </si>
-  <si>
-    <t>Locali per servizio assistenziale</t>
-  </si>
-  <si>
-    <t>Locali per servizio di ristorazione</t>
-  </si>
-  <si>
-    <t>Edificio assistenziale</t>
   </si>
   <si>
     <t>Festa</t>
@@ -4872,7 +4857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5296,9 +5281,6 @@
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="72" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5326,13 +5308,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5538,15 +5513,6 @@
     </xf>
     <xf numFmtId="0" fontId="58" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7039,26 +7005,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="234" t="s">
         <v>753</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="233"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="229"/>
     </row>
     <row r="2" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="233" t="s">
         <v>754</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="235"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="231"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="63" t="s">
@@ -8433,7 +8399,7 @@
   </sheetPr>
   <dimension ref="A1:G1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
@@ -8450,26 +8416,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="234" t="s">
         <v>755</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="233"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="229"/>
     </row>
     <row r="2" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="235" t="s">
         <v>756</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="63" t="s">
@@ -8548,34 +8514,34 @@
       <c r="G6" s="80"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="74" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="246" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="245" t="s">
+      <c r="D7" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="246"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="244" t="s">
+      <c r="A8" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="B8" s="245"/>
-      <c r="C8" s="246" t="s">
+      <c r="B8" s="77"/>
+      <c r="C8" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="245" t="s">
+      <c r="D8" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="246"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="74" t="s">
@@ -9973,26 +9939,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="234" t="s">
         <v>758</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="233"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="229"/>
     </row>
     <row r="2" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="236" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="63" t="s">
@@ -11615,26 +11581,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="234" t="s">
         <v>770</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="233"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="229"/>
     </row>
     <row r="2" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="237" t="s">
         <v>771</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="63" t="s">
@@ -13159,26 +13125,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="234" t="s">
         <v>772</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="233"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="229"/>
     </row>
     <row r="2" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="236" t="s">
         <v>390</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="63" t="s">
@@ -14439,16 +14405,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="238" t="s">
         <v>773</v>
       </c>
-      <c r="B1" s="230"/>
+      <c r="B1" s="226"/>
     </row>
     <row r="2" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="233" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="230"/>
+      <c r="B2" s="226"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="110" t="s">
@@ -14666,7 +14632,7 @@
       <c r="D26" s="150"/>
     </row>
     <row r="27" spans="1:4" ht="19.5">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="158" t="s">
         <v>810</v>
       </c>
       <c r="B27" s="151"/>
@@ -14674,7 +14640,7 @@
       <c r="D27" s="150"/>
     </row>
     <row r="28" spans="1:4" ht="19.5">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="158" t="s">
         <v>811</v>
       </c>
       <c r="B28" s="151"/>
@@ -14682,7 +14648,7 @@
       <c r="D28" s="150"/>
     </row>
     <row r="29" spans="1:4" ht="19.5">
-      <c r="A29" s="159" t="s">
+      <c r="A29" s="158" t="s">
         <v>812</v>
       </c>
       <c r="B29" s="151"/>
@@ -16409,20 +16375,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="238" t="s">
         <v>418</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
     </row>
     <row r="2" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="233" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="110" t="s">
@@ -17609,7 +17575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -17620,20 +17586,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="238" t="s">
         <v>443</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
     </row>
     <row r="2" spans="1:4" ht="65.25" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="233" t="s">
         <v>444</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="110" t="s">
@@ -18780,20 +18746,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="238" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
     </row>
     <row r="2" spans="1:4" ht="46.5" customHeight="1">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="232" t="s">
         <v>456</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="110" t="s">
@@ -19860,20 +19826,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="238" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
     </row>
     <row r="2" spans="1:4" ht="46.5" customHeight="1">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="232" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="110" t="s">
@@ -19899,7 +19865,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="115" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B5" s="115"/>
       <c r="C5" s="115"/>
@@ -24562,11 +24528,11 @@
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D956"/>
+  <dimension ref="A1:D951"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -24579,20 +24545,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="238" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
     </row>
     <row r="2" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="233" t="s">
         <v>464</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="110" t="s">
@@ -24778,7 +24744,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="112"/>
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="159" t="s">
         <v>486</v>
       </c>
       <c r="C25" s="114"/>
@@ -24786,7 +24752,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="112"/>
-      <c r="B26" s="160" t="s">
+      <c r="B26" s="159" t="s">
         <v>487</v>
       </c>
       <c r="C26" s="114"/>
@@ -24794,7 +24760,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="112"/>
-      <c r="B27" s="160" t="s">
+      <c r="B27" s="159" t="s">
         <v>488</v>
       </c>
       <c r="C27" s="114"/>
@@ -24954,8 +24920,8 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="113"/>
-      <c r="B47" s="158" t="s">
-        <v>821</v>
+      <c r="B47" s="157" t="s">
+        <v>820</v>
       </c>
       <c r="C47" s="114"/>
       <c r="D47" s="114"/>
@@ -25007,31 +24973,11 @@
       <c r="C53" s="113"/>
       <c r="D53" s="119"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B54" s="170" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B55" s="171" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B56" s="170" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B57" s="157" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B58" s="169" t="s">
-        <v>824</v>
-      </c>
-    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="59" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="60" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="61" spans="1:4" ht="15.75" customHeight="1"/>
@@ -25040,14 +24986,14 @@
     <row r="64" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="67" ht="19.5" customHeight="1"/>
+    <row r="68" ht="20.25" customHeight="1"/>
+    <row r="69" ht="21.75" customHeight="1"/>
     <row r="70" ht="15.75" customHeight="1"/>
     <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="19.5" customHeight="1"/>
-    <row r="73" ht="20.25" customHeight="1"/>
-    <row r="74" ht="21.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
     <row r="75" ht="15.75" customHeight="1"/>
     <row r="76" ht="15.75" customHeight="1"/>
     <row r="77" ht="15.75" customHeight="1"/>
@@ -25925,11 +25871,6 @@
     <row r="949" ht="15.75" customHeight="1"/>
     <row r="950" ht="15.75" customHeight="1"/>
     <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
@@ -26015,20 +25956,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="239" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="233" t="s">
         <v>515</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="110" t="s">
@@ -26045,448 +25986,448 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="214" t="s">
+      <c r="A4" s="210" t="s">
         <v>516</v>
       </c>
-      <c r="B4" s="212"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="120"/>
-      <c r="B5" s="215" t="s">
+      <c r="B5" s="211" t="s">
         <v>517</v>
       </c>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="208"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="120"/>
-      <c r="B6" s="212"/>
-      <c r="C6" s="215" t="s">
+      <c r="B6" s="208"/>
+      <c r="C6" s="211" t="s">
         <v>518</v>
       </c>
-      <c r="D6" s="212"/>
+      <c r="D6" s="208"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="120"/>
-      <c r="B7" s="212"/>
-      <c r="C7" s="215" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="211" t="s">
         <v>519</v>
       </c>
-      <c r="D7" s="212"/>
+      <c r="D7" s="208"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="120"/>
-      <c r="B8" s="212"/>
-      <c r="C8" s="215" t="s">
+      <c r="B8" s="208"/>
+      <c r="C8" s="211" t="s">
         <v>520</v>
       </c>
-      <c r="D8" s="212"/>
+      <c r="D8" s="208"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="120"/>
-      <c r="B9" s="212"/>
-      <c r="C9" s="215" t="s">
+      <c r="B9" s="208"/>
+      <c r="C9" s="211" t="s">
         <v>521</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="208"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="120"/>
-      <c r="B10" s="212"/>
-      <c r="C10" s="215" t="s">
+      <c r="B10" s="208"/>
+      <c r="C10" s="211" t="s">
         <v>522</v>
       </c>
-      <c r="D10" s="212"/>
+      <c r="D10" s="208"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="120"/>
-      <c r="B11" s="212"/>
-      <c r="C11" s="215" t="s">
+      <c r="B11" s="208"/>
+      <c r="C11" s="211" t="s">
         <v>523</v>
       </c>
-      <c r="D11" s="212"/>
+      <c r="D11" s="208"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="120"/>
-      <c r="B12" s="212"/>
-      <c r="C12" s="215" t="s">
+      <c r="B12" s="208"/>
+      <c r="C12" s="211" t="s">
         <v>524</v>
       </c>
-      <c r="D12" s="212"/>
+      <c r="D12" s="208"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="120"/>
-      <c r="B13" s="212"/>
-      <c r="C13" s="215" t="s">
+      <c r="B13" s="208"/>
+      <c r="C13" s="211" t="s">
         <v>525</v>
       </c>
-      <c r="D13" s="212"/>
+      <c r="D13" s="208"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="120"/>
-      <c r="B14" s="212"/>
-      <c r="C14" s="215" t="s">
+      <c r="B14" s="208"/>
+      <c r="C14" s="211" t="s">
         <v>526</v>
       </c>
-      <c r="D14" s="212"/>
+      <c r="D14" s="208"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="120"/>
-      <c r="B15" s="215" t="s">
+      <c r="B15" s="211" t="s">
         <v>527</v>
       </c>
-      <c r="C15" s="212"/>
-      <c r="D15" s="212"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="208"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="120"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="215" t="s">
+      <c r="B16" s="208"/>
+      <c r="C16" s="211" t="s">
         <v>528</v>
       </c>
-      <c r="D16" s="212"/>
+      <c r="D16" s="208"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="120"/>
-      <c r="B17" s="212"/>
-      <c r="C17" s="215" t="s">
+      <c r="B17" s="208"/>
+      <c r="C17" s="211" t="s">
         <v>529</v>
       </c>
-      <c r="D17" s="212"/>
+      <c r="D17" s="208"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="120"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="215" t="s">
+      <c r="B18" s="208"/>
+      <c r="C18" s="211" t="s">
         <v>530</v>
       </c>
-      <c r="D18" s="212"/>
+      <c r="D18" s="208"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="120"/>
-      <c r="B19" s="212"/>
-      <c r="C19" s="215" t="s">
+      <c r="B19" s="208"/>
+      <c r="C19" s="211" t="s">
         <v>531</v>
       </c>
-      <c r="D19" s="212"/>
+      <c r="D19" s="208"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="120"/>
-      <c r="B20" s="212"/>
-      <c r="C20" s="215" t="s">
+      <c r="B20" s="208"/>
+      <c r="C20" s="211" t="s">
         <v>532</v>
       </c>
-      <c r="D20" s="212"/>
+      <c r="D20" s="208"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="120"/>
-      <c r="B21" s="212"/>
-      <c r="C21" s="215" t="s">
+      <c r="B21" s="208"/>
+      <c r="C21" s="211" t="s">
         <v>533</v>
       </c>
-      <c r="D21" s="212"/>
+      <c r="D21" s="208"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="120"/>
-      <c r="B22" s="215" t="s">
+      <c r="B22" s="211" t="s">
         <v>534</v>
       </c>
-      <c r="C22" s="212"/>
-      <c r="D22" s="212"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="208"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="120"/>
-      <c r="B23" s="212"/>
-      <c r="C23" s="215" t="s">
+      <c r="B23" s="208"/>
+      <c r="C23" s="211" t="s">
         <v>535</v>
       </c>
-      <c r="D23" s="212"/>
+      <c r="D23" s="208"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="120"/>
-      <c r="B24" s="212"/>
-      <c r="C24" s="215" t="s">
+      <c r="B24" s="208"/>
+      <c r="C24" s="211" t="s">
         <v>536</v>
       </c>
-      <c r="D24" s="212"/>
+      <c r="D24" s="208"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="120"/>
-      <c r="B25" s="212"/>
-      <c r="C25" s="215" t="s">
+      <c r="B25" s="208"/>
+      <c r="C25" s="211" t="s">
         <v>537</v>
       </c>
-      <c r="D25" s="212"/>
+      <c r="D25" s="208"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="120"/>
-      <c r="B26" s="215" t="s">
+      <c r="B26" s="211" t="s">
         <v>538</v>
       </c>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
+      <c r="C26" s="208"/>
+      <c r="D26" s="208"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="120"/>
-      <c r="B27" s="212"/>
-      <c r="C27" s="215" t="s">
+      <c r="B27" s="208"/>
+      <c r="C27" s="211" t="s">
         <v>539</v>
       </c>
-      <c r="D27" s="212"/>
+      <c r="D27" s="208"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" s="214" t="s">
+      <c r="A28" s="210" t="s">
         <v>540</v>
       </c>
-      <c r="B28" s="212"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="208"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="120"/>
-      <c r="B29" s="215" t="s">
+      <c r="B29" s="211" t="s">
         <v>541</v>
       </c>
-      <c r="C29" s="212"/>
-      <c r="D29" s="212"/>
+      <c r="C29" s="208"/>
+      <c r="D29" s="208"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="120"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="215" t="s">
+      <c r="C30" s="211" t="s">
         <v>542</v>
       </c>
-      <c r="D30" s="212"/>
+      <c r="D30" s="208"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="120"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="215" t="s">
+      <c r="C31" s="211" t="s">
         <v>543</v>
       </c>
-      <c r="D31" s="212"/>
+      <c r="D31" s="208"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="120"/>
-      <c r="B32" s="215" t="s">
+      <c r="B32" s="211" t="s">
         <v>544</v>
       </c>
-      <c r="C32" s="212"/>
-      <c r="D32" s="212"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="208"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="120"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="215" t="s">
+      <c r="C33" s="211" t="s">
         <v>545</v>
       </c>
-      <c r="D33" s="212"/>
+      <c r="D33" s="208"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="120"/>
       <c r="B34" s="17"/>
-      <c r="C34" s="215" t="s">
+      <c r="C34" s="211" t="s">
         <v>546</v>
       </c>
-      <c r="D34" s="212"/>
+      <c r="D34" s="208"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="120"/>
-      <c r="B35" s="215" t="s">
+      <c r="B35" s="211" t="s">
         <v>547</v>
       </c>
-      <c r="C35" s="212"/>
-      <c r="D35" s="212"/>
+      <c r="C35" s="208"/>
+      <c r="D35" s="208"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="120"/>
       <c r="B36" s="17"/>
-      <c r="C36" s="215" t="s">
+      <c r="C36" s="211" t="s">
         <v>548</v>
       </c>
-      <c r="D36" s="212"/>
+      <c r="D36" s="208"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="120"/>
-      <c r="B37" s="215" t="s">
+      <c r="B37" s="211" t="s">
         <v>549</v>
       </c>
-      <c r="C37" s="212"/>
-      <c r="D37" s="212"/>
+      <c r="C37" s="208"/>
+      <c r="D37" s="208"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="120"/>
       <c r="B38" s="17"/>
-      <c r="C38" s="215" t="s">
+      <c r="C38" s="211" t="s">
         <v>550</v>
       </c>
-      <c r="D38" s="212"/>
+      <c r="D38" s="208"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="120"/>
       <c r="B39" s="17"/>
-      <c r="C39" s="215" t="s">
+      <c r="C39" s="211" t="s">
         <v>551</v>
       </c>
-      <c r="D39" s="212"/>
+      <c r="D39" s="208"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="120"/>
       <c r="B40" s="17"/>
-      <c r="C40" s="216" t="s">
+      <c r="C40" s="212" t="s">
         <v>552</v>
       </c>
-      <c r="D40" s="212"/>
+      <c r="D40" s="208"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="120"/>
       <c r="B41" s="17"/>
-      <c r="C41" s="215" t="s">
+      <c r="C41" s="211" t="s">
         <v>553</v>
       </c>
-      <c r="D41" s="212"/>
+      <c r="D41" s="208"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="120"/>
       <c r="B42" s="17"/>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="211" t="s">
         <v>554</v>
       </c>
-      <c r="D42" s="212"/>
+      <c r="D42" s="208"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="120"/>
       <c r="B43" s="17"/>
-      <c r="C43" s="158" t="s">
-        <v>826</v>
-      </c>
-      <c r="D43" s="212"/>
+      <c r="C43" s="157" t="s">
+        <v>821</v>
+      </c>
+      <c r="D43" s="208"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1">
       <c r="A44" s="120"/>
-      <c r="B44" s="215" t="s">
+      <c r="B44" s="211" t="s">
         <v>555</v>
       </c>
-      <c r="C44" s="217"/>
-      <c r="D44" s="212"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="208"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="120"/>
       <c r="B45" s="17"/>
-      <c r="C45" s="215" t="s">
+      <c r="C45" s="211" t="s">
         <v>556</v>
       </c>
-      <c r="D45" s="212"/>
+      <c r="D45" s="208"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="120"/>
       <c r="B46" s="17"/>
-      <c r="C46" s="215" t="s">
+      <c r="C46" s="211" t="s">
         <v>557</v>
       </c>
-      <c r="D46" s="212"/>
+      <c r="D46" s="208"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="120"/>
       <c r="B47" s="17"/>
-      <c r="C47" s="215" t="s">
+      <c r="C47" s="211" t="s">
         <v>558</v>
       </c>
-      <c r="D47" s="212"/>
+      <c r="D47" s="208"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="120"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="216" t="s">
+      <c r="C48" s="212" t="s">
         <v>559</v>
       </c>
-      <c r="D48" s="212"/>
+      <c r="D48" s="208"/>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A49" s="214" t="s">
+      <c r="A49" s="210" t="s">
         <v>560</v>
       </c>
-      <c r="B49" s="212"/>
-      <c r="C49" s="212"/>
-      <c r="D49" s="212"/>
+      <c r="B49" s="208"/>
+      <c r="C49" s="208"/>
+      <c r="D49" s="208"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="120"/>
       <c r="B50" s="17"/>
-      <c r="C50" s="216" t="s">
+      <c r="C50" s="212" t="s">
         <v>561</v>
       </c>
-      <c r="D50" s="212"/>
+      <c r="D50" s="208"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="A51" s="120"/>
       <c r="B51" s="17"/>
-      <c r="C51" s="216" t="s">
+      <c r="C51" s="212" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1">
       <c r="A52" s="120"/>
       <c r="B52" s="17"/>
-      <c r="C52" s="216" t="s">
+      <c r="C52" s="212" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A53" s="214" t="s">
+      <c r="A53" s="210" t="s">
         <v>564</v>
       </c>
-      <c r="B53" s="212"/>
-      <c r="C53" s="212"/>
+      <c r="B53" s="208"/>
+      <c r="C53" s="208"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="A54" s="120"/>
-      <c r="B54" s="215" t="s">
+      <c r="B54" s="211" t="s">
         <v>565</v>
       </c>
-      <c r="C54" s="212"/>
+      <c r="C54" s="208"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="A55" s="120"/>
       <c r="B55" s="17"/>
-      <c r="C55" s="215" t="s">
+      <c r="C55" s="211" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1">
       <c r="A56" s="120"/>
       <c r="B56" s="17"/>
-      <c r="C56" s="215" t="s">
+      <c r="C56" s="211" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="120"/>
       <c r="B57" s="17"/>
-      <c r="C57" s="215" t="s">
+      <c r="C57" s="211" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="A58" s="120"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="215" t="s">
+      <c r="C58" s="211" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="A59" s="120"/>
       <c r="B59" s="17"/>
-      <c r="C59" s="215" t="s">
+      <c r="C59" s="211" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="A60" s="120"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="215" t="s">
+      <c r="C60" s="211" t="s">
         <v>571</v>
       </c>
     </row>
@@ -27496,20 +27437,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="239" t="s">
         <v>572</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="233" t="s">
         <v>573</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1">
       <c r="A3" s="110" t="s">
@@ -27527,41 +27468,41 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="5" spans="1:4" ht="84.75" customHeight="1">
-      <c r="A5" s="219" t="s">
-        <v>833</v>
+      <c r="A5" s="215" t="s">
+        <v>828</v>
       </c>
       <c r="B5" s="114"/>
-      <c r="D5" s="218" t="s">
-        <v>845</v>
+      <c r="D5" s="214" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="74.25" customHeight="1">
-      <c r="A6" s="219" t="s">
+      <c r="A6" s="215" t="s">
         <v>724</v>
       </c>
       <c r="B6" s="114"/>
-      <c r="D6" s="172" t="s">
-        <v>846</v>
+      <c r="D6" s="168" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="65.25" customHeight="1">
-      <c r="A7" s="219" t="s">
-        <v>839</v>
-      </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="218" t="s">
-        <v>847</v>
+      <c r="A7" s="215" t="s">
+        <v>834</v>
+      </c>
+      <c r="B7" s="216"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="214" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="63" customHeight="1">
-      <c r="A8" s="219" t="s">
-        <v>840</v>
-      </c>
-      <c r="B8" s="220"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="218" t="s">
-        <v>848</v>
+      <c r="A8" s="215" t="s">
+        <v>835</v>
+      </c>
+      <c r="B8" s="216"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="214" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
@@ -28575,20 +28516,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="239" t="s">
         <v>574</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="233" t="s">
         <v>575</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="110" t="s">
@@ -28631,8 +28572,8 @@
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="120"/>
       <c r="B7" s="120"/>
-      <c r="C7" s="166" t="s">
-        <v>827</v>
+      <c r="C7" s="165" t="s">
+        <v>822</v>
       </c>
       <c r="D7" s="121"/>
     </row>
@@ -28647,15 +28588,15 @@
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="120"/>
       <c r="B9" s="120"/>
-      <c r="C9" s="166" t="s">
-        <v>828</v>
+      <c r="C9" s="165" t="s">
+        <v>823</v>
       </c>
       <c r="D9" s="121"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="120"/>
       <c r="B10" s="120"/>
-      <c r="C10" s="166" t="s">
+      <c r="C10" s="165" t="s">
         <v>580</v>
       </c>
       <c r="D10" s="121"/>
@@ -28665,21 +28606,21 @@
       <c r="B11" s="120" t="s">
         <v>581</v>
       </c>
-      <c r="C11" s="166"/>
+      <c r="C11" s="165"/>
       <c r="D11" s="121"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="120"/>
       <c r="B12" s="120"/>
-      <c r="C12" s="166" t="s">
-        <v>831</v>
+      <c r="C12" s="165" t="s">
+        <v>826</v>
       </c>
       <c r="D12" s="121"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="120"/>
       <c r="B13" s="120"/>
-      <c r="C13" s="166" t="s">
+      <c r="C13" s="165" t="s">
         <v>582</v>
       </c>
       <c r="D13" s="121"/>
@@ -28687,16 +28628,16 @@
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="120"/>
       <c r="B14" s="120" t="s">
-        <v>829</v>
-      </c>
-      <c r="C14" s="166"/>
+        <v>824</v>
+      </c>
+      <c r="C14" s="165"/>
       <c r="D14" s="121"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="120"/>
       <c r="B15" s="120"/>
-      <c r="C15" s="166" t="s">
-        <v>830</v>
+      <c r="C15" s="165" t="s">
+        <v>825</v>
       </c>
       <c r="D15" s="121"/>
     </row>
@@ -28705,7 +28646,7 @@
         <v>583</v>
       </c>
       <c r="B16" s="122"/>
-      <c r="C16" s="167"/>
+      <c r="C16" s="166"/>
       <c r="D16" s="121"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
@@ -28728,7 +28669,7 @@
       <c r="A19" s="120"/>
       <c r="B19" s="120"/>
       <c r="C19" s="120" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D19" s="121"/>
     </row>
@@ -29788,20 +29729,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="238" t="s">
         <v>592</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
     </row>
     <row r="2" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="233" t="s">
         <v>593</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="110" t="s">
@@ -29818,7 +29759,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="167" t="s">
         <v>594</v>
       </c>
       <c r="B4" s="123"/>
@@ -29826,7 +29767,7 @@
       <c r="D4" s="123"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="167" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="60"/>
@@ -29834,7 +29775,7 @@
       <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="167" t="s">
         <v>595</v>
       </c>
       <c r="B6" s="60"/>
@@ -29842,7 +29783,7 @@
       <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="167" t="s">
         <v>596</v>
       </c>
       <c r="B7" s="60"/>
@@ -29850,7 +29791,7 @@
       <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="167" t="s">
         <v>597</v>
       </c>
       <c r="B8" s="60"/>
@@ -29858,7 +29799,7 @@
       <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A9" s="168" t="s">
+      <c r="A9" s="167" t="s">
         <v>598</v>
       </c>
       <c r="B9" s="60"/>
@@ -29866,7 +29807,7 @@
       <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="167" t="s">
         <v>599</v>
       </c>
       <c r="B10" s="60"/>
@@ -29874,7 +29815,7 @@
       <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="167" t="s">
         <v>600</v>
       </c>
       <c r="B11" s="60"/>
@@ -29882,7 +29823,7 @@
       <c r="D11" s="60"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" s="168" t="s">
+      <c r="A12" s="167" t="s">
         <v>601</v>
       </c>
       <c r="B12" s="60"/>
@@ -29890,7 +29831,7 @@
       <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" s="168" t="s">
+      <c r="A13" s="167" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="17"/>
@@ -30927,20 +30868,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="238" t="s">
         <v>602</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
     </row>
     <row r="2" spans="1:4" ht="46.5" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="233" t="s">
         <v>603</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="110" t="s">
@@ -32056,20 +31997,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="239" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="233" t="s">
         <v>615</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="110" t="s">
@@ -32090,23 +32031,23 @@
         <v>810</v>
       </c>
       <c r="D4" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D5" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="D6" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1"/>
@@ -33122,20 +33063,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="239" t="s">
         <v>616</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="233" t="s">
         <v>617</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="110" t="s">
@@ -34258,20 +34199,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="239" t="s">
         <v>627</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="233" t="s">
         <v>628</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="110" t="s">
@@ -36892,8 +36833,8 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -36920,34 +36861,34 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="161"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="161"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="161"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="164"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="163"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A6" s="165"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="164"/>
+      <c r="A6" s="164"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="163"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="126"/>
@@ -38069,46 +38010,46 @@
       <c r="V1" s="45"/>
       <c r="Y1" s="48"/>
       <c r="Z1" s="44"/>
-      <c r="AA1" s="229" t="s">
+      <c r="AA1" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="229"/>
-      <c r="AD1" s="229"/>
-      <c r="AE1" s="229"/>
-      <c r="AF1" s="229"/>
+      <c r="AB1" s="225"/>
+      <c r="AC1" s="225"/>
+      <c r="AD1" s="225"/>
+      <c r="AE1" s="225"/>
+      <c r="AF1" s="225"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" customHeight="1">
       <c r="A2" s="49" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="228" t="s">
+      <c r="C2" s="224" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
       <c r="I2" s="44"/>
-      <c r="J2" s="228" t="s">
+      <c r="J2" s="224" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
       <c r="M2" s="44"/>
       <c r="N2" s="48" t="s">
         <v>75</v>
       </c>
       <c r="O2" s="44"/>
-      <c r="P2" s="228" t="s">
+      <c r="P2" s="224" t="s">
         <v>700</v>
       </c>
-      <c r="Q2" s="228"/>
-      <c r="R2" s="228"/>
-      <c r="S2" s="228"/>
-      <c r="T2" s="228"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
       <c r="U2" s="50"/>
       <c r="V2" s="48" t="s">
         <v>25</v>
@@ -38170,52 +38111,52 @@
         <v>81</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="175" t="s">
         <v>701</v>
       </c>
-      <c r="D4" s="188" t="s">
+      <c r="D4" s="184" t="s">
         <v>702</v>
       </c>
-      <c r="E4" s="179" t="s">
+      <c r="E4" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="182" t="s">
+      <c r="F4" s="178" t="s">
         <v>706</v>
       </c>
-      <c r="G4" s="179" t="s">
+      <c r="G4" s="175" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="180" t="s">
+      <c r="H4" s="176" t="s">
         <v>84</v>
       </c>
       <c r="I4" s="44"/>
-      <c r="J4" s="200" t="s">
+      <c r="J4" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="200" t="s">
+      <c r="K4" s="196" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="201" t="s">
+      <c r="L4" s="197" t="s">
         <v>87</v>
       </c>
       <c r="M4" s="44"/>
-      <c r="N4" s="203" t="s">
+      <c r="N4" s="199" t="s">
         <v>33</v>
       </c>
       <c r="O4" s="44"/>
-      <c r="P4" s="206" t="s">
+      <c r="P4" s="202" t="s">
         <v>88</v>
       </c>
-      <c r="Q4" s="206" t="s">
+      <c r="Q4" s="202" t="s">
         <v>89</v>
       </c>
-      <c r="R4" s="206" t="s">
+      <c r="R4" s="202" t="s">
         <v>725</v>
       </c>
-      <c r="S4" s="206" t="s">
+      <c r="S4" s="202" t="s">
         <v>726</v>
       </c>
-      <c r="T4" s="205" t="s">
+      <c r="T4" s="201" t="s">
         <v>727</v>
       </c>
       <c r="U4" s="55"/>
@@ -38231,25 +38172,25 @@
     <row r="5" spans="1:32" ht="15.75" customHeight="1">
       <c r="A5" s="57"/>
       <c r="B5" s="44"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
       <c r="I5" s="44"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
       <c r="L5" s="44"/>
       <c r="M5" s="44"/>
-      <c r="N5" s="195" t="s">
-        <v>833</v>
+      <c r="N5" s="191" t="s">
+        <v>828</v>
       </c>
       <c r="O5" s="44"/>
-      <c r="P5" s="195"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
+      <c r="P5" s="191"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
       <c r="T5" s="44"/>
       <c r="U5" s="44"/>
       <c r="V5" s="44"/>
@@ -38264,41 +38205,41 @@
         <v>91</v>
       </c>
       <c r="B6" s="44"/>
-      <c r="C6" s="174" t="s">
+      <c r="C6" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="189" t="s">
+      <c r="D6" s="185" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="175" t="s">
+      <c r="E6" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="186" t="s">
+      <c r="F6" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="175" t="s">
+      <c r="G6" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="193" t="s">
+      <c r="H6" s="189" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="44"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="202"/>
+      <c r="J6" s="198"/>
+      <c r="K6" s="198"/>
       <c r="L6" s="44"/>
       <c r="M6" s="44"/>
-      <c r="N6" s="195" t="s">
+      <c r="N6" s="191" t="s">
         <v>724</v>
       </c>
       <c r="O6" s="44"/>
-      <c r="P6" s="193" t="s">
+      <c r="P6" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="213" t="s">
+      <c r="Q6" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="193"/>
-      <c r="S6" s="193"/>
+      <c r="R6" s="189"/>
+      <c r="S6" s="189"/>
       <c r="T6" s="54"/>
       <c r="U6" s="44"/>
       <c r="V6" s="44"/>
@@ -38311,27 +38252,27 @@
     <row r="7" spans="1:32" ht="17.25" customHeight="1">
       <c r="A7" s="57"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="194" t="s">
+      <c r="C7" s="171"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="190" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="44"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
       <c r="L7" s="44"/>
       <c r="M7" s="44"/>
-      <c r="N7" s="195" t="s">
-        <v>839</v>
+      <c r="N7" s="191" t="s">
+        <v>834</v>
       </c>
       <c r="O7" s="44"/>
-      <c r="P7" s="195"/>
-      <c r="Q7" s="194"/>
-      <c r="R7" s="194"/>
-      <c r="S7" s="194"/>
+      <c r="P7" s="191"/>
+      <c r="Q7" s="190"/>
+      <c r="R7" s="190"/>
+      <c r="S7" s="190"/>
       <c r="T7" s="59"/>
       <c r="U7" s="44"/>
       <c r="V7" s="44"/>
@@ -38344,27 +38285,27 @@
     <row r="8" spans="1:32" ht="20.25">
       <c r="A8" s="57"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="195" t="s">
+      <c r="C8" s="171"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="191" t="s">
         <v>93</v>
       </c>
       <c r="I8" s="44"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="173"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
       <c r="L8" s="44"/>
       <c r="M8" s="44"/>
-      <c r="N8" s="195" t="s">
-        <v>840</v>
+      <c r="N8" s="191" t="s">
+        <v>835</v>
       </c>
       <c r="O8" s="44"/>
-      <c r="P8" s="195"/>
-      <c r="Q8" s="194"/>
-      <c r="R8" s="194"/>
-      <c r="S8" s="194"/>
+      <c r="P8" s="191"/>
+      <c r="Q8" s="190"/>
+      <c r="R8" s="190"/>
+      <c r="S8" s="190"/>
       <c r="T8" s="59"/>
       <c r="U8" s="44"/>
       <c r="V8" s="44"/>
@@ -38379,25 +38320,25 @@
     <row r="9" spans="1:32" ht="18.75" customHeight="1">
       <c r="A9" s="57"/>
       <c r="B9" s="44"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="195" t="s">
+      <c r="C9" s="171"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="191" t="s">
         <v>94</v>
       </c>
       <c r="I9" s="44"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="173"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
       <c r="L9" s="44"/>
       <c r="M9" s="44"/>
-      <c r="N9" s="195"/>
+      <c r="N9" s="191"/>
       <c r="O9" s="44"/>
-      <c r="P9" s="195"/>
-      <c r="Q9" s="194"/>
-      <c r="R9" s="194"/>
-      <c r="S9" s="194"/>
+      <c r="P9" s="191"/>
+      <c r="Q9" s="190"/>
+      <c r="R9" s="190"/>
+      <c r="S9" s="190"/>
       <c r="T9" s="59"/>
       <c r="U9" s="44"/>
       <c r="V9" s="44"/>
@@ -38412,25 +38353,25 @@
     <row r="10" spans="1:32" ht="15.75" customHeight="1">
       <c r="A10" s="57"/>
       <c r="B10" s="44"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="195" t="s">
+      <c r="C10" s="171"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="191" t="s">
         <v>95</v>
       </c>
       <c r="I10" s="44"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="173"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
       <c r="L10" s="44"/>
       <c r="M10" s="44"/>
-      <c r="N10" s="195"/>
+      <c r="N10" s="191"/>
       <c r="O10" s="44"/>
-      <c r="P10" s="195"/>
-      <c r="Q10" s="194"/>
-      <c r="R10" s="194"/>
-      <c r="S10" s="194"/>
+      <c r="P10" s="191"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="190"/>
+      <c r="S10" s="190"/>
       <c r="T10" s="59"/>
       <c r="U10" s="44"/>
       <c r="V10" s="44"/>
@@ -38446,25 +38387,25 @@
     <row r="11" spans="1:32" ht="15.75" customHeight="1">
       <c r="A11" s="57"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="195" t="s">
+      <c r="C11" s="171"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="191" t="s">
         <v>96</v>
       </c>
       <c r="I11" s="44"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="173"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
       <c r="L11" s="44"/>
       <c r="M11" s="44"/>
-      <c r="N11" s="195"/>
+      <c r="N11" s="191"/>
       <c r="O11" s="44"/>
-      <c r="P11" s="196"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="194"/>
-      <c r="S11" s="194"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
       <c r="T11" s="59"/>
       <c r="U11" s="44"/>
       <c r="V11" s="44"/>
@@ -38480,25 +38421,25 @@
     <row r="12" spans="1:32" ht="15.75" customHeight="1">
       <c r="A12" s="57"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="195" t="s">
+      <c r="C12" s="171"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="191" t="s">
         <v>97</v>
       </c>
       <c r="I12" s="44"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="173"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
       <c r="L12" s="44"/>
       <c r="M12" s="44"/>
-      <c r="N12" s="195"/>
+      <c r="N12" s="191"/>
       <c r="O12" s="44"/>
-      <c r="P12" s="195"/>
-      <c r="Q12" s="194"/>
-      <c r="R12" s="194"/>
-      <c r="S12" s="194"/>
+      <c r="P12" s="191"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="190"/>
+      <c r="S12" s="190"/>
       <c r="T12" s="59"/>
       <c r="U12" s="44"/>
       <c r="V12" s="44"/>
@@ -38514,25 +38455,25 @@
     <row r="13" spans="1:32" ht="15.75" customHeight="1">
       <c r="A13" s="57"/>
       <c r="B13" s="44"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="196" t="s">
+      <c r="C13" s="171"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="192" t="s">
         <v>98</v>
       </c>
       <c r="I13" s="44"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
       <c r="L13" s="44"/>
       <c r="M13" s="44"/>
-      <c r="N13" s="195"/>
+      <c r="N13" s="191"/>
       <c r="O13" s="44"/>
-      <c r="P13" s="195"/>
-      <c r="Q13" s="194"/>
-      <c r="R13" s="194"/>
-      <c r="S13" s="194"/>
+      <c r="P13" s="191"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="190"/>
+      <c r="S13" s="190"/>
       <c r="T13" s="59"/>
       <c r="U13" s="44"/>
       <c r="V13" s="44"/>
@@ -38548,25 +38489,25 @@
     <row r="14" spans="1:32" ht="15.75" customHeight="1">
       <c r="A14" s="57"/>
       <c r="B14" s="44"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="196" t="s">
+      <c r="C14" s="171"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="192" t="s">
         <v>99</v>
       </c>
       <c r="I14" s="44"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
       <c r="L14" s="44"/>
       <c r="M14" s="44"/>
-      <c r="N14" s="195"/>
+      <c r="N14" s="191"/>
       <c r="O14" s="44"/>
-      <c r="P14" s="177"/>
-      <c r="Q14" s="195"/>
-      <c r="R14" s="195"/>
-      <c r="S14" s="195"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="191"/>
+      <c r="R14" s="191"/>
+      <c r="S14" s="191"/>
       <c r="T14" s="53"/>
       <c r="U14" s="44"/>
       <c r="V14" s="44"/>
@@ -38582,24 +38523,24 @@
     <row r="15" spans="1:32" ht="15.75" customHeight="1">
       <c r="A15" s="57"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="195" t="s">
+      <c r="C15" s="171"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="191" t="s">
         <v>100</v>
       </c>
       <c r="I15" s="44"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="44"/>
       <c r="M15" s="44"/>
-      <c r="N15" s="195"/>
-      <c r="P15" s="207"/>
-      <c r="Q15" s="195"/>
-      <c r="R15" s="195"/>
-      <c r="S15" s="195"/>
+      <c r="N15" s="191"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="191"/>
+      <c r="R15" s="191"/>
+      <c r="S15" s="191"/>
       <c r="T15" s="53"/>
       <c r="U15" s="44"/>
       <c r="V15" s="44"/>
@@ -38615,25 +38556,25 @@
     <row r="16" spans="1:32" ht="15.75" customHeight="1">
       <c r="A16" s="57"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="195" t="s">
+      <c r="C16" s="171"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="191" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="44"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
       <c r="L16" s="44"/>
       <c r="M16" s="44"/>
-      <c r="N16" s="195"/>
+      <c r="N16" s="191"/>
       <c r="O16" s="44"/>
-      <c r="P16" s="208"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="173"/>
-      <c r="S16" s="173"/>
+      <c r="P16" s="204"/>
+      <c r="Q16" s="169"/>
+      <c r="R16" s="169"/>
+      <c r="S16" s="169"/>
       <c r="T16" s="44"/>
       <c r="U16" s="44"/>
       <c r="V16" s="44"/>
@@ -38649,23 +38590,23 @@
     <row r="17" spans="1:30" ht="15.75" customHeight="1">
       <c r="A17" s="49"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="175"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
       <c r="I17" s="44"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
       <c r="L17" s="44"/>
       <c r="M17" s="44"/>
-      <c r="N17" s="195"/>
+      <c r="N17" s="191"/>
       <c r="O17" s="44"/>
-      <c r="P17" s="208"/>
-      <c r="Q17" s="175"/>
-      <c r="R17" s="175"/>
-      <c r="S17" s="175"/>
+      <c r="P17" s="204"/>
+      <c r="Q17" s="171"/>
+      <c r="R17" s="171"/>
+      <c r="S17" s="171"/>
       <c r="T17" s="55"/>
       <c r="U17" s="44"/>
       <c r="V17" s="44"/>
@@ -38681,23 +38622,23 @@
     <row r="18" spans="1:30" ht="15.75" customHeight="1">
       <c r="A18" s="49"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
       <c r="I18" s="44"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="173"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="169"/>
       <c r="L18" s="44"/>
       <c r="M18" s="44"/>
-      <c r="N18" s="195"/>
+      <c r="N18" s="191"/>
       <c r="O18" s="44"/>
-      <c r="P18" s="208"/>
-      <c r="Q18" s="175"/>
-      <c r="R18" s="175"/>
-      <c r="S18" s="175"/>
+      <c r="P18" s="204"/>
+      <c r="Q18" s="171"/>
+      <c r="R18" s="171"/>
+      <c r="S18" s="171"/>
       <c r="T18" s="55"/>
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
@@ -38713,23 +38654,23 @@
     <row r="19" spans="1:30" ht="15.75" customHeight="1">
       <c r="A19" s="49"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="175"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
       <c r="I19" s="44"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="173"/>
+      <c r="J19" s="169"/>
+      <c r="K19" s="169"/>
       <c r="L19" s="44"/>
       <c r="M19" s="44"/>
-      <c r="N19" s="177"/>
+      <c r="N19" s="173"/>
       <c r="O19" s="44"/>
-      <c r="P19" s="208"/>
-      <c r="Q19" s="175"/>
-      <c r="R19" s="175"/>
-      <c r="S19" s="175"/>
+      <c r="P19" s="204"/>
+      <c r="Q19" s="171"/>
+      <c r="R19" s="171"/>
+      <c r="S19" s="171"/>
       <c r="T19" s="55"/>
       <c r="U19" s="44"/>
       <c r="V19" s="44"/>
@@ -38745,23 +38686,23 @@
     <row r="20" spans="1:30" ht="15.75" customHeight="1">
       <c r="A20" s="49"/>
       <c r="B20" s="44"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
       <c r="I20" s="44"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="173"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169"/>
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
-      <c r="N20" s="195"/>
+      <c r="N20" s="191"/>
       <c r="O20" s="44"/>
-      <c r="P20" s="208"/>
-      <c r="Q20" s="175"/>
-      <c r="R20" s="175"/>
-      <c r="S20" s="175"/>
+      <c r="P20" s="204"/>
+      <c r="Q20" s="171"/>
+      <c r="R20" s="171"/>
+      <c r="S20" s="171"/>
       <c r="T20" s="55"/>
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
@@ -38779,47 +38720,47 @@
         <v>101</v>
       </c>
       <c r="B21" s="44"/>
-      <c r="C21" s="175" t="s">
+      <c r="C21" s="171" t="s">
         <v>704</v>
       </c>
-      <c r="D21" s="190" t="s">
+      <c r="D21" s="186" t="s">
         <v>719</v>
       </c>
-      <c r="E21" s="183" t="s">
+      <c r="E21" s="179" t="s">
         <v>720</v>
       </c>
-      <c r="F21" s="186" t="s">
+      <c r="F21" s="182" t="s">
         <v>707</v>
       </c>
-      <c r="G21" s="175" t="s">
+      <c r="G21" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="175" t="s">
+      <c r="H21" s="171" t="s">
         <v>103</v>
       </c>
       <c r="I21" s="44"/>
-      <c r="J21" s="175" t="s">
+      <c r="J21" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="175" t="s">
+      <c r="K21" s="171" t="s">
         <v>105</v>
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
-      <c r="N21" s="175" t="s">
+      <c r="N21" s="171" t="s">
         <v>106</v>
       </c>
       <c r="O21" s="44"/>
-      <c r="P21" s="175" t="s">
+      <c r="P21" s="171" t="s">
         <v>107</v>
       </c>
-      <c r="Q21" s="175" t="s">
+      <c r="Q21" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="R21" s="175" t="s">
+      <c r="R21" s="171" t="s">
         <v>730</v>
       </c>
-      <c r="S21" s="175" t="s">
+      <c r="S21" s="171" t="s">
         <v>736</v>
       </c>
       <c r="T21" s="55"/>
@@ -38837,47 +38778,47 @@
     <row r="22" spans="1:30" ht="15.75" customHeight="1">
       <c r="A22" s="57"/>
       <c r="B22" s="44"/>
-      <c r="C22" s="175" t="s">
+      <c r="C22" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="190" t="s">
+      <c r="D22" s="186" t="s">
         <v>717</v>
       </c>
-      <c r="E22" s="183" t="s">
+      <c r="E22" s="179" t="s">
         <v>721</v>
       </c>
-      <c r="F22" s="186" t="s">
+      <c r="F22" s="182" t="s">
         <v>708</v>
       </c>
-      <c r="G22" s="175" t="s">
+      <c r="G22" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="175" t="s">
+      <c r="H22" s="171" t="s">
         <v>110</v>
       </c>
       <c r="I22" s="44"/>
-      <c r="J22" s="175" t="s">
+      <c r="J22" s="171" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="175" t="s">
+      <c r="K22" s="171" t="s">
         <v>112</v>
       </c>
       <c r="L22" s="44"/>
       <c r="M22" s="44"/>
-      <c r="N22" s="175" t="s">
+      <c r="N22" s="171" t="s">
         <v>113</v>
       </c>
       <c r="O22" s="44"/>
-      <c r="P22" s="175" t="s">
+      <c r="P22" s="171" t="s">
         <v>114</v>
       </c>
-      <c r="Q22" s="175" t="s">
+      <c r="Q22" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="R22" s="175" t="s">
+      <c r="R22" s="171" t="s">
         <v>731</v>
       </c>
-      <c r="S22" s="175" t="s">
+      <c r="S22" s="171" t="s">
         <v>737</v>
       </c>
       <c r="T22" s="55"/>
@@ -38895,47 +38836,47 @@
     <row r="23" spans="1:30" ht="15.75" customHeight="1">
       <c r="A23" s="57"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="175" t="s">
+      <c r="C23" s="171" t="s">
         <v>705</v>
       </c>
-      <c r="D23" s="190" t="s">
+      <c r="D23" s="186" t="s">
         <v>718</v>
       </c>
-      <c r="E23" s="183" t="s">
+      <c r="E23" s="179" t="s">
         <v>722</v>
       </c>
-      <c r="F23" s="186" t="s">
+      <c r="F23" s="182" t="s">
         <v>709</v>
       </c>
-      <c r="G23" s="175" t="s">
+      <c r="G23" s="171" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="175" t="s">
+      <c r="H23" s="171" t="s">
         <v>118</v>
       </c>
       <c r="I23" s="44"/>
-      <c r="J23" s="175" t="s">
+      <c r="J23" s="171" t="s">
         <v>119</v>
       </c>
-      <c r="K23" s="175" t="s">
+      <c r="K23" s="171" t="s">
         <v>120</v>
       </c>
       <c r="L23" s="44"/>
       <c r="M23" s="44"/>
-      <c r="N23" s="175" t="s">
+      <c r="N23" s="171" t="s">
         <v>121</v>
       </c>
       <c r="O23" s="44"/>
-      <c r="P23" s="175" t="s">
+      <c r="P23" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="Q23" s="175" t="s">
+      <c r="Q23" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="R23" s="175" t="s">
+      <c r="R23" s="171" t="s">
         <v>732</v>
       </c>
-      <c r="S23" s="175" t="s">
+      <c r="S23" s="171" t="s">
         <v>738</v>
       </c>
       <c r="T23" s="55"/>
@@ -38953,47 +38894,47 @@
     <row r="24" spans="1:30" ht="15.75" customHeight="1">
       <c r="A24" s="57"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="175" t="s">
+      <c r="C24" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="184" t="s">
+      <c r="D24" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="175" t="s">
+      <c r="E24" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="186" t="s">
+      <c r="F24" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="175" t="s">
+      <c r="G24" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="175" t="s">
+      <c r="H24" s="171" t="s">
         <v>124</v>
       </c>
       <c r="I24" s="44"/>
-      <c r="J24" s="175" t="s">
+      <c r="J24" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="K24" s="175" t="s">
+      <c r="K24" s="171" t="s">
         <v>124</v>
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="44"/>
-      <c r="N24" s="175" t="s">
+      <c r="N24" s="171" t="s">
         <v>124</v>
       </c>
       <c r="O24" s="44"/>
-      <c r="P24" s="175" t="s">
+      <c r="P24" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="Q24" s="175" t="s">
+      <c r="Q24" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="R24" s="175" t="s">
+      <c r="R24" s="171" t="s">
         <v>733</v>
       </c>
-      <c r="S24" s="175" t="s">
+      <c r="S24" s="171" t="s">
         <v>733</v>
       </c>
       <c r="T24" s="55"/>
@@ -39011,23 +38952,23 @@
     <row r="25" spans="1:30" ht="15.75" customHeight="1">
       <c r="A25" s="57"/>
       <c r="B25" s="44"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="169"/>
       <c r="I25" s="44"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="173"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="169"/>
       <c r="L25" s="44"/>
       <c r="M25" s="44"/>
-      <c r="N25" s="204"/>
+      <c r="N25" s="200"/>
       <c r="O25" s="44"/>
-      <c r="P25" s="208"/>
-      <c r="Q25" s="173"/>
-      <c r="R25" s="173"/>
-      <c r="S25" s="173"/>
+      <c r="P25" s="204"/>
+      <c r="Q25" s="169"/>
+      <c r="R25" s="169"/>
+      <c r="S25" s="169"/>
       <c r="T25" s="44"/>
       <c r="U25" s="44"/>
       <c r="V25" s="44"/>
@@ -39045,47 +38986,47 @@
         <v>125</v>
       </c>
       <c r="B26" s="44"/>
-      <c r="C26" s="181" t="s">
+      <c r="C26" s="177" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="198" t="s">
+      <c r="D26" s="194" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="181" t="s">
+      <c r="E26" s="177" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="199" t="s">
+      <c r="F26" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="176" t="s">
+      <c r="G26" s="172" t="s">
         <v>127</v>
       </c>
-      <c r="H26" s="181" t="s">
+      <c r="H26" s="177" t="s">
         <v>17</v>
       </c>
       <c r="I26" s="44"/>
-      <c r="J26" s="181" t="s">
+      <c r="J26" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="181" t="s">
+      <c r="K26" s="177" t="s">
         <v>14</v>
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="44"/>
-      <c r="N26" s="181" t="s">
+      <c r="N26" s="177" t="s">
         <v>16</v>
       </c>
       <c r="O26" s="44"/>
-      <c r="P26" s="181" t="s">
+      <c r="P26" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="209" t="s">
+      <c r="Q26" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="181" t="s">
+      <c r="R26" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="S26" s="210" t="s">
+      <c r="S26" s="206" t="s">
         <v>739</v>
       </c>
       <c r="T26" s="145" t="s">
@@ -39104,25 +39045,25 @@
     <row r="27" spans="1:30" ht="15.75" customHeight="1">
       <c r="A27" s="43"/>
       <c r="B27" s="44"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="197" t="s">
+      <c r="C27" s="169"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="193" t="s">
         <v>18</v>
       </c>
       <c r="I27" s="44"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="173"/>
+      <c r="J27" s="169"/>
+      <c r="K27" s="169"/>
       <c r="L27" s="44"/>
       <c r="M27" s="44"/>
-      <c r="N27" s="204"/>
+      <c r="N27" s="200"/>
       <c r="O27" s="44"/>
-      <c r="P27" s="208"/>
-      <c r="Q27" s="173"/>
-      <c r="R27" s="173"/>
-      <c r="S27" s="173"/>
+      <c r="P27" s="204"/>
+      <c r="Q27" s="169"/>
+      <c r="R27" s="169"/>
+      <c r="S27" s="169"/>
       <c r="T27" s="44"/>
       <c r="U27" s="44"/>
       <c r="V27" s="44"/>
@@ -39136,23 +39077,23 @@
     <row r="28" spans="1:30" ht="15.75" customHeight="1">
       <c r="A28" s="43"/>
       <c r="B28" s="44"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="169"/>
       <c r="I28" s="44"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="169"/>
       <c r="L28" s="44"/>
       <c r="M28" s="44"/>
-      <c r="N28" s="204"/>
+      <c r="N28" s="200"/>
       <c r="O28" s="44"/>
-      <c r="P28" s="208"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="173"/>
-      <c r="S28" s="173"/>
+      <c r="P28" s="204"/>
+      <c r="Q28" s="169"/>
+      <c r="R28" s="169"/>
+      <c r="S28" s="169"/>
       <c r="T28" s="44"/>
       <c r="U28" s="44"/>
       <c r="V28" s="44"/>
@@ -39166,23 +39107,23 @@
     <row r="29" spans="1:30" ht="15.75" customHeight="1">
       <c r="A29" s="43"/>
       <c r="B29" s="44"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="169"/>
+      <c r="H29" s="169"/>
       <c r="I29" s="44"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="173"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="169"/>
       <c r="L29" s="44"/>
       <c r="M29" s="44"/>
-      <c r="N29" s="204"/>
+      <c r="N29" s="200"/>
       <c r="O29" s="44"/>
-      <c r="P29" s="208"/>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="173"/>
-      <c r="S29" s="173"/>
+      <c r="P29" s="204"/>
+      <c r="Q29" s="169"/>
+      <c r="R29" s="169"/>
+      <c r="S29" s="169"/>
       <c r="T29" s="44"/>
       <c r="U29" s="44"/>
       <c r="V29" s="44"/>
@@ -39198,23 +39139,23 @@
     <row r="30" spans="1:30" ht="15.75" customHeight="1">
       <c r="A30" s="43"/>
       <c r="B30" s="44"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="169"/>
+      <c r="H30" s="169"/>
       <c r="I30" s="44"/>
-      <c r="J30" s="173"/>
-      <c r="K30" s="173"/>
+      <c r="J30" s="169"/>
+      <c r="K30" s="169"/>
       <c r="L30" s="44"/>
       <c r="M30" s="44"/>
-      <c r="N30" s="204"/>
+      <c r="N30" s="200"/>
       <c r="O30" s="44"/>
-      <c r="P30" s="208"/>
-      <c r="Q30" s="173"/>
-      <c r="R30" s="173"/>
-      <c r="S30" s="173"/>
+      <c r="P30" s="204"/>
+      <c r="Q30" s="169"/>
+      <c r="R30" s="169"/>
+      <c r="S30" s="169"/>
       <c r="T30" s="44"/>
       <c r="U30" s="44"/>
       <c r="V30" s="44"/>
@@ -39232,47 +39173,47 @@
         <v>129</v>
       </c>
       <c r="B31" s="44"/>
-      <c r="C31" s="178" t="s">
+      <c r="C31" s="174" t="s">
         <v>703</v>
       </c>
-      <c r="D31" s="191" t="s">
+      <c r="D31" s="187" t="s">
         <v>710</v>
       </c>
-      <c r="E31" s="178" t="s">
+      <c r="E31" s="174" t="s">
         <v>723</v>
       </c>
-      <c r="F31" s="192" t="s">
+      <c r="F31" s="188" t="s">
         <v>712</v>
       </c>
-      <c r="G31" s="178" t="s">
+      <c r="G31" s="174" t="s">
         <v>711</v>
       </c>
-      <c r="H31" s="178" t="s">
+      <c r="H31" s="174" t="s">
         <v>713</v>
       </c>
       <c r="I31" s="44"/>
-      <c r="J31" s="178" t="s">
+      <c r="J31" s="174" t="s">
         <v>735</v>
       </c>
-      <c r="K31" s="178" t="s">
+      <c r="K31" s="174" t="s">
         <v>716</v>
       </c>
       <c r="L31" s="44"/>
       <c r="M31" s="44"/>
-      <c r="N31" s="178" t="s">
-        <v>841</v>
+      <c r="N31" s="174" t="s">
+        <v>836</v>
       </c>
       <c r="O31" s="44"/>
-      <c r="P31" s="178" t="s">
+      <c r="P31" s="174" t="s">
         <v>729</v>
       </c>
-      <c r="Q31" s="178" t="s">
+      <c r="Q31" s="174" t="s">
         <v>728</v>
       </c>
-      <c r="R31" s="178" t="s">
+      <c r="R31" s="174" t="s">
         <v>734</v>
       </c>
-      <c r="S31" s="211"/>
+      <c r="S31" s="207"/>
       <c r="T31" s="62"/>
       <c r="U31" s="62"/>
       <c r="V31" s="144" t="s">
@@ -40405,26 +40346,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="227" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="233"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="229"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="230" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="235"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="231"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="63" t="s">
@@ -41593,26 +41534,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="227" t="s">
         <v>714</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="233"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="229"/>
     </row>
     <row r="2" spans="1:7" ht="66" customHeight="1">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="230" t="s">
         <v>715</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="235"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="231"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="63" t="s">
@@ -42997,26 +42938,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="227" t="s">
         <v>743</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="233"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="229"/>
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="232" t="s">
         <v>744</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="235"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="231"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="63" t="s">
@@ -43190,104 +43131,104 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="217" t="s">
         <v>199</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="218" t="s">
+        <v>845</v>
+      </c>
+      <c r="C12" s="219" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="218" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="217" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="218" t="s">
+        <v>846</v>
+      </c>
+      <c r="C13" s="219" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="218" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="217" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="218" t="s">
+        <v>847</v>
+      </c>
+      <c r="C14" s="219" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="218" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="220"/>
+      <c r="F14" s="220"/>
+      <c r="G14" s="220"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="217" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="218" t="s">
+        <v>848</v>
+      </c>
+      <c r="C15" s="219" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="218" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="220"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="220"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="217" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="218" t="s">
+        <v>849</v>
+      </c>
+      <c r="C16" s="219" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="218" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="220"/>
+      <c r="F16" s="220"/>
+      <c r="G16" s="220"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A17" s="217" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="221" t="s">
         <v>850</v>
       </c>
-      <c r="C12" s="223" t="s">
+      <c r="C17" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="222" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="224"/>
-      <c r="F12" s="224"/>
-      <c r="G12" s="224"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="221" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="222" t="s">
-        <v>851</v>
-      </c>
-      <c r="C13" s="223" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="222" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="224"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="224"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="221" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="222" t="s">
-        <v>852</v>
-      </c>
-      <c r="C14" s="223" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="222" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="224"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="221" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="222" t="s">
-        <v>853</v>
-      </c>
-      <c r="C15" s="223" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="222" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="224"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="224"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="221" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="222" t="s">
-        <v>854</v>
-      </c>
-      <c r="C16" s="223" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="222" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="224"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="221" t="s">
-        <v>204</v>
-      </c>
-      <c r="B17" s="225" t="s">
-        <v>855</v>
-      </c>
-      <c r="C17" s="223" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="222"/>
-      <c r="E17" s="224"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="224"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="220"/>
+      <c r="F17" s="220"/>
+      <c r="G17" s="220"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="65" t="s">
@@ -44365,26 +44306,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="227" t="s">
         <v>749</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="233"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="229"/>
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="232" t="s">
         <v>748</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="235"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="231"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="63" t="s">
@@ -44546,87 +44487,87 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="74" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C11" s="76" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="226" t="s">
+      <c r="A12" s="222" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="222" t="s">
-        <v>856</v>
-      </c>
-      <c r="C12" s="223" t="s">
+      <c r="B12" s="218" t="s">
+        <v>851</v>
+      </c>
+      <c r="C12" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="222" t="s">
+      <c r="D12" s="218" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="224"/>
-      <c r="F12" s="224"/>
-      <c r="G12" s="224"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="221" t="s">
+      <c r="A13" s="217" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="222" t="s">
-        <v>857</v>
-      </c>
-      <c r="C13" s="223" t="s">
+      <c r="B13" s="218" t="s">
+        <v>852</v>
+      </c>
+      <c r="C13" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="222" t="s">
+      <c r="D13" s="218" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="224"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="224"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="221" t="s">
+      <c r="A14" s="217" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="222" t="s">
-        <v>858</v>
-      </c>
-      <c r="C14" s="223" t="s">
+      <c r="B14" s="218" t="s">
+        <v>853</v>
+      </c>
+      <c r="C14" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="222" t="s">
+      <c r="D14" s="218" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="224"/>
+      <c r="E14" s="220"/>
+      <c r="F14" s="220"/>
+      <c r="G14" s="220"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="226" t="s">
+      <c r="A15" s="222" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="222" t="s">
-        <v>859</v>
-      </c>
-      <c r="C15" s="223" t="s">
+      <c r="B15" s="218" t="s">
+        <v>854</v>
+      </c>
+      <c r="C15" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="222" t="s">
+      <c r="D15" s="218" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="224"/>
-      <c r="F15" s="227" t="s">
+      <c r="E15" s="220"/>
+      <c r="F15" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="224" t="s">
+      <c r="G15" s="220" t="s">
         <v>151</v>
       </c>
     </row>
@@ -45636,7 +45577,7 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A12:G16 A4:G10 A11:D11">
+  <conditionalFormatting sqref="A4:G10 A11:D11 A12:G16">
     <cfRule type="expression" dxfId="6" priority="1">
       <formula>$C4="Sì"</formula>
     </cfRule>
@@ -45710,26 +45651,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="227" t="s">
         <v>750</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="233"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="229"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="233" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="235"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="231"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="63" t="s">
